--- a/FRS_TestScenarios_TestCases/nopcommerce_test_scenarios.xlsx
+++ b/FRS_TestScenarios_TestCases/nopcommerce_test_scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ThusharaAnwin\nopcommerce_automation_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ThusharaAnwin\EcommerceAutomation\FRS_TestScenarios_TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC431F15-1176-4966-80B5-42C21B72A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FB7C4-370C-4ECF-9C59-BEB5470768D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB383658-464A-4539-9AA7-0AEEBBD3EAB5}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>TS_010</t>
   </si>
   <si>
-    <t>Verify that users can modify or cancel their bookings</t>
-  </si>
-  <si>
     <t>TS_011</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Verify homepage navigation</t>
+  </si>
+  <si>
+    <t>Verify that users can modify or cancel their order</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA41949-4B5C-47BE-9BB1-72DF3B76AB35}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,87 +783,87 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/FRS_TestScenarios_TestCases/nopcommerce_test_scenarios.xlsx
+++ b/FRS_TestScenarios_TestCases/nopcommerce_test_scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ThusharaAnwin\EcommerceAutomation\FRS_TestScenarios_TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FB7C4-370C-4ECF-9C59-BEB5470768D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D052AC3-7EC3-4BBD-A70B-C2579E07D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB383658-464A-4539-9AA7-0AEEBBD3EAB5}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
